--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2.0存证平台" sheetId="1" r:id="rId1"/>
+    <sheet name="2.1测试环境" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.1.3.240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.3.246</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10.1.3.247</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,23 +129,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rpc:9400 tcp:60011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>~/zll/chain2.0.1/toolkit</t>
-  </si>
-  <si>
-    <t>节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管理工具</t>
@@ -177,6 +158,82 @@
   <si>
     <t>线上2.0测试环境版本
 （存证平台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/zll/sandbox/peer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/zll/permission/peer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.3.246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/zll/permission/peer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t perm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t perm_sdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc:9300 tcp:60030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc:9300 tcp:60030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/zll/permission/sdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/zll/permission/toolkit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wttool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1自动化测试环境1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1自动化测试环境2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/ate/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/ate/wtsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/ate/wttool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc:9600 tcp:50050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,15 +274,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,11 +296,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -245,16 +323,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,306 +668,674 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>7775</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7779</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6">
+        <v>7779</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7777</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6">
+        <v>9997</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2.0存证平台" sheetId="1" r:id="rId1"/>
     <sheet name="2.1测试环境" sheetId="2" r:id="rId2"/>
+    <sheet name="2.1华瑞测试环境" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,39 +202,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>~/zll/permission/toolkit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wttool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1自动化测试环境1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1自动化测试环境2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/ate/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/ate/wtsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/ate/wttool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc:9600 tcp:50050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>~/zll/permission/sdk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~/zll/permission/toolkit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2.1华瑞测试环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/peer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc:9005 tcp:60005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/sdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp:8080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/tjfoc-mg-toolkit</t>
   </si>
   <si>
     <t>wttool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.1自动化测试环境1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1自动化测试环境2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/root/ate/wtchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/root/ate/wtsdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/root/ate/wttool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpc:9600 tcp:50050</t>
+    <t>root/root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/svr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,17 +386,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -346,6 +400,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -669,126 +729,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>7775</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -805,7 +865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -847,484 +909,484 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7779</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="6">
+        <v>7777</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5">
+        <v>9997</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6">
-        <v>7779</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="8">
-        <v>7777</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6">
-        <v>9997</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1338,4 +1400,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2.0存证平台" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="95">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,105 @@
   </si>
   <si>
     <t>管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1华瑞开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/wtsdk</t>
+  </si>
+  <si>
+    <t>10.1.3.219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root/tjfoc2019!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker 部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/ate/wttoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.3.247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtpeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtcli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.246:wallettoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.246:wttoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjfoc/tjfoc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t ylchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t ylsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.1.5.231:3000/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.246:wutongExplorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.3.155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t mgmt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -407,6 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -863,52 +963,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
@@ -933,8 +1035,9 @@
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -957,8 +1060,9 @@
       <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
         <v>22</v>
@@ -981,8 +1085,9 @@
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1005,8 +1110,9 @@
       <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -1029,8 +1135,9 @@
       <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -1053,8 +1160,9 @@
       <c r="H7" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
@@ -1077,8 +1185,9 @@
       <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>49</v>
       </c>
@@ -1103,8 +1212,9 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -1127,8 +1237,9 @@
       <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
@@ -1151,8 +1262,9 @@
       <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="6" t="s">
         <v>38</v>
@@ -1175,8 +1287,9 @@
       <c r="H12" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
         <v>7</v>
@@ -1199,8 +1312,9 @@
       <c r="H13" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
@@ -1223,8 +1337,9 @@
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
         <v>22</v>
@@ -1247,8 +1362,9 @@
       <c r="H15" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
@@ -1261,16 +1377,21 @@
       <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
@@ -1281,16 +1402,21 @@
       <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="4" t="s">
         <v>22</v>
@@ -1301,16 +1427,21 @@
       <c r="D18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -1321,39 +1452,53 @@
       <c r="D19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="G19" s="5">
         <v>9997</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4" t="s">
-        <v>18</v>
+        <v>75</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8888</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
@@ -1363,38 +1508,61 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
-        <v>18</v>
+      <c r="G22" s="4">
+        <v>9300</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+      <c r="B23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A16:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,15 +1572,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="1" bestFit="1" customWidth="1"/>
@@ -1553,9 +1723,102 @@
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>9000</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>9001</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>9002</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8888</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,11 +388,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.1.3.155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tmux at -t mgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.3.240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/ate/mgmt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,6 +501,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -506,7 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -855,7 +859,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -881,7 +885,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -905,7 +909,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -929,7 +933,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1015,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1038,7 +1042,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1067,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1092,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1117,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1142,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1167,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +1192,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1215,7 +1219,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1244,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1269,7 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1294,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1319,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1344,7 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1365,7 +1369,7 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1392,7 +1396,7 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1421,7 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1442,7 +1446,7 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1473,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>76</v>
       </c>
@@ -1496,7 +1500,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1515,20 +1519,22 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4">
-        <v>9300</v>
+        <v>9095</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>78</v>
@@ -1536,14 +1542,14 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="5"/>
@@ -1614,7 +1620,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1637,7 +1643,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
@@ -1658,7 +1664,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
@@ -1679,7 +1685,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
@@ -1698,7 +1704,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
@@ -1715,7 +1721,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1724,7 +1730,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1743,7 +1749,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
@@ -1760,7 +1766,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
@@ -1777,7 +1783,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>72</v>
       </c>
@@ -1798,7 +1804,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1807,7 +1813,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2.0存证平台" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="99">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,38 +297,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/root/wtsdk</t>
+  </si>
+  <si>
+    <t>10.1.3.219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root/tjfoc2019!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker 部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/ate/wttoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.3.247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtpeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtcli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.246:wallettoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.246:wttoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjfoc/tjfoc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t ylchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t ylsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.1.5.231:3000/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.246:wutongExplorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.1华瑞开发环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/root/wtsdk</t>
-  </si>
-  <si>
-    <t>10.1.3.219</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root/tjfoc2019!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker 部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/root/ate/wttoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.3.247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理系统</t>
+    <t>10.1.5.230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjfoc/tjfoc123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,67 +400,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>webapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtpeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtcli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.246:wallettoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.246:wttoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.5.231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tjfoc/tjfoc123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tmux at -t ylchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t ylsdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://10.1.5.231:3000/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.246:wutongExplorer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t mgmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.3.240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/root/ate/mgmt</t>
+    <t>/home/tjfoc/mgmt</t>
+  </si>
+  <si>
+    <t>10.1.5.226</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -969,7 +980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1011,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1382,10 +1395,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>53</v>
@@ -1407,10 +1420,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>53</v>
@@ -1432,10 +1445,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>53</v>
@@ -1457,10 +1470,10 @@
         <v>51</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="5">
         <v>9997</v>
@@ -1469,34 +1482,34 @@
         <v>16</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="G20" s="4">
         <v>8888</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1521,36 +1534,34 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>93</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4">
         <v>9095</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1558,10 +1569,10 @@
         <v>3000</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1592,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1715,7 +1726,9 @@
         <v>68</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>4080</v>
+      </c>
       <c r="G6" s="5" t="s">
         <v>69</v>
       </c>
@@ -1731,14 +1744,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -1751,11 +1764,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
@@ -1768,11 +1781,11 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -1785,13 +1798,13 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>43</v>
@@ -1805,12 +1818,20 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2.0存证平台" sheetId="1" r:id="rId1"/>
@@ -344,70 +344,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3.246:wttoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjfoc/tjfoc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t ylchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t ylsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.1.5.231:3000/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.246:wutongExplorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1华瑞开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjfoc/tjfoc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjfoc/tjfoc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/mgmt</t>
+  </si>
+  <si>
+    <t>10.1.5.226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3.246:wallettoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.246:wttoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.5.231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tjfoc/tjfoc123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t ylchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t ylsdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://10.1.5.231:3000/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.246:wutongExplorer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>webapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1华瑞开发环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.5.230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tjfoc/tjfoc123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tjfoc/tjfoc123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/tjfoc/mgmt</t>
-  </si>
-  <si>
-    <t>10.1.5.226</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -513,6 +519,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -828,7 +837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -837,7 +848,7 @@
     <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -870,7 +881,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -896,7 +907,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -920,7 +931,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -944,7 +955,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -980,9 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1028,7 +1037,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1055,7 +1064,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1089,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1114,7 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1139,7 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1155,7 +1164,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1189,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1205,7 +1214,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1229,10 +1238,10 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1254,10 +1263,10 @@
       <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -1279,10 +1288,10 @@
       <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1304,10 +1313,10 @@
       <c r="H12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
@@ -1329,10 +1338,10 @@
       <c r="H13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1354,10 +1363,10 @@
       <c r="H14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
@@ -1379,10 +1388,10 @@
       <c r="H15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1395,7 +1404,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>79</v>
@@ -1409,7 +1418,7 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>79</v>
@@ -1434,7 +1443,7 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>79</v>
@@ -1459,61 +1468,61 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="9">
         <v>9997</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="9">
+        <v>8888</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="4">
-        <v>8888</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1532,15 +1541,15 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1553,15 +1562,15 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1572,7 +1581,7 @@
         <v>78</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1591,9 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1631,7 +1638,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1654,7 +1661,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
@@ -1675,7 +1682,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
@@ -1696,7 +1703,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
@@ -1715,7 +1722,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
@@ -1734,7 +1741,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1743,8 +1750,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>92</v>
+      <c r="A8" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>71</v>
@@ -1762,7 +1769,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
         <v>71</v>
       </c>
@@ -1779,7 +1786,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
@@ -1796,7 +1803,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
@@ -1817,24 +1824,24 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="103">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,10 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.1.3.247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,50 +360,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3.246:wutongExplorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1华瑞开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjfoc/tjfoc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.246:wallettoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjfoc/tjfoc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/mgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wttoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.3.246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://10.1.5.231:3000/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.246:wutongExplorer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>webapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1华瑞开发环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.5.230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tjfoc/tjfoc123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tjfoc/tjfoc123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/tjfoc/mgmt</t>
-  </si>
-  <si>
-    <t>10.1.5.226</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.246:wallettoken</t>
+    <t>system / gwylsystem@2019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,25 +464,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -492,10 +505,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -512,28 +526,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -855,33 +867,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -907,7 +919,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -931,7 +943,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -955,7 +967,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -989,610 +1001,671 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="4">
         <v>7779</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="4">
+        <v>7777</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6" t="s">
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="6">
-        <v>7777</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="H19" s="4">
         <v>9997</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="4">
         <v>8888</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4">
-        <v>9095</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>9095</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4">
+      <c r="E24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
         <v>3000</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>88</v>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A16:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1600,7 +1673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1638,7 +1713,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1661,7 +1736,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
@@ -1682,7 +1757,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
@@ -1703,7 +1778,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
@@ -1722,7 +1797,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
@@ -1741,7 +1816,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1750,8 +1825,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>91</v>
+      <c r="A8" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>71</v>
@@ -1769,7 +1844,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>71</v>
       </c>
@@ -1786,7 +1861,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>71</v>
       </c>
@@ -1803,7 +1878,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
@@ -1824,12 +1899,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1837,11 +1912,11 @@
         <v>3000</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.1手动测试环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rpc:9500 tcp:60011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wttoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tmux at -t token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +417,14 @@
   </si>
   <si>
     <t>system / gwylsystem@2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtfinservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1手动测试环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +894,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -903,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -951,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -1013,7 +1013,7 @@
     <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.75" style="1" bestFit="1" customWidth="1"/>
@@ -1046,15 +1046,15 @@
         <v>3</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -1101,7 +1101,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -1250,16 +1250,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1276,16 +1276,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1302,16 +1302,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1322,19 +1322,19 @@
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="4">
         <v>7777</v>
@@ -1354,13 +1354,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>18</v>
@@ -1380,13 +1380,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>18</v>
@@ -1406,13 +1406,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>18</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -1434,16 +1434,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1460,16 +1460,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1486,16 +1486,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1512,26 +1512,26 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" s="4">
         <v>9997</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
@@ -1540,50 +1540,50 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H20" s="4">
         <v>8888</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H21" s="4">
         <v>8888</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1609,16 +1609,16 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1626,23 +1626,23 @@
         <v>9095</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="E24" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1714,22 +1714,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
@@ -1738,19 +1738,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -1759,19 +1759,19 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>16</v>
@@ -1780,16 +1780,16 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
@@ -1799,20 +1799,20 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4">
         <v>4080</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1826,14 +1826,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -1846,11 +1846,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
@@ -1863,11 +1863,11 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -1880,16 +1880,16 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4">
         <v>8888</v>
@@ -1901,10 +1901,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1912,7 +1912,7 @@
         <v>3000</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2.0存证平台" sheetId="1" r:id="rId1"/>
     <sheet name="2.1测试环境" sheetId="2" r:id="rId2"/>
     <sheet name="2.1华瑞测试环境" sheetId="3" r:id="rId3"/>
+    <sheet name="梧桐链长期运行环境" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="136">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,43 +389,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/home/tjfoc/mgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.3.246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.1.5.231:3000/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system / gwylsystem@2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtfinservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1手动测试环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期运行环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tjfoc/tjfoc123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/tjfoc/mgmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载均衡9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.3.246</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://10.1.5.231:3000/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system / gwylsystem@2019</t>
+  </si>
+  <si>
+    <t>wtmgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账户/密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3.patch1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin / pass@7899
+system / pass@7899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.227</t>
+  </si>
+  <si>
+    <t>10.1.5.228</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60213/9213/7213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root / root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/mysql/bin/mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wttoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtmgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtexplorer_2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtfinservice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wtfinservice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1手动测试环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -533,6 +664,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -541,6 +696,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,7 +1051,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -919,7 +1077,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -943,7 +1101,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -967,7 +1125,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1046,14 +1206,14 @@
         <v>3</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1081,7 +1241,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1267,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1133,7 +1293,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1319,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1185,7 +1345,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1371,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1397,7 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1265,7 +1425,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1291,7 +1451,7 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1477,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1343,7 +1503,7 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1369,7 +1529,7 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1555,7 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1421,8 +1581,8 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>102</v>
+      <c r="A16" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -1449,7 +1609,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1635,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -1501,7 +1661,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1529,7 +1689,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
         <v>74</v>
       </c>
@@ -1546,7 +1706,7 @@
         <v>86</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" s="4">
         <v>8888</v>
@@ -1557,12 +1717,12 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
@@ -1571,23 +1731,23 @@
         <v>73</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H21" s="4">
         <v>8888</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1767,7 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1615,10 +1775,10 @@
         <v>91</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1626,12 +1786,12 @@
         <v>9095</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
@@ -1642,7 +1802,7 @@
         <v>82</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1713,7 +1873,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1736,7 +1896,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -1757,7 +1917,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
@@ -1778,7 +1938,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -1797,7 +1957,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
@@ -1816,7 +1976,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1825,7 +1985,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1844,7 +2004,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -1861,7 +2021,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -1878,7 +2038,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -1899,7 +2059,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -1916,7 +2076,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1933,4 +2093,273 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="12">
+        <v>59095</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="14">
+        <v>53000</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="14">
+        <v>58080</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="14">
+        <v>59090</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
+        <v>3306</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -604,12 +604,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -640,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -670,9 +676,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,9 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -698,6 +698,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1060,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1077,7 +1086,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1110,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1134,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1161,9 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1213,7 +1220,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1241,7 +1248,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1274,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1300,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1319,7 +1326,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1352,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1378,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1397,7 +1404,7 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1425,7 +1432,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1451,7 +1458,7 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1477,7 +1484,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1503,7 +1510,7 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1536,7 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +1562,7 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1581,7 +1588,7 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1609,7 +1616,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1635,7 +1642,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -1661,7 +1668,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1689,7 +1696,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4" t="s">
         <v>74</v>
       </c>
@@ -1717,7 +1724,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
@@ -1747,7 +1754,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1767,7 +1774,7 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1791,7 +1798,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
@@ -1873,7 +1880,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1896,7 +1903,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -1917,7 +1924,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
@@ -1938,7 +1945,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -1957,7 +1964,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
@@ -1976,7 +1983,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1985,7 +1992,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2004,7 +2011,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2021,7 +2028,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2038,7 +2045,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2059,7 +2066,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -2076,7 +2083,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2149,210 +2156,210 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="20">
         <v>59095</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>53000</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>58080</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="20">
         <v>59090</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
         <v>3306</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="172">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,6 +556,147 @@
   </si>
   <si>
     <t>wtfinservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.219.56.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.100.193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root / Tongji123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/mix/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180.107.140.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.100.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root / Tongji123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/mix/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180.101.144.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.100.165</t>
+  </si>
+  <si>
+    <t>root / Tongji123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtpeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.112.52.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubuntu / TJF@tjfoc </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/ubuntu/mix/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.27.168.192</t>
+  </si>
+  <si>
+    <t>ubuntu / tj@123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtpeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/mix/wtsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.219.56.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root / Tongji123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtmgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/wtmgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://114.219.56.6:61005/#/mgmt/nodemanage  账户密码 123/12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网混合组网环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +704,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +744,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -618,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -641,12 +796,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -688,6 +997,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -700,14 +1018,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1060,7 +1412,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1086,7 +1438,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1462,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1486,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1220,7 +1572,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1248,7 +1600,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1626,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1300,7 +1652,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1678,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1704,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1730,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1404,7 +1756,7 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1432,7 +1784,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1810,7 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1836,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +1862,7 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1536,7 +1888,7 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1562,7 +1914,7 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1588,7 +1940,7 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1616,7 +1968,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1642,7 +1994,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -1668,7 +2020,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1696,7 +2048,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>74</v>
       </c>
@@ -1724,7 +2076,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
@@ -1754,7 +2106,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1774,7 +2126,7 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1798,7 +2150,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
@@ -1880,7 +2232,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1903,7 +2255,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -1924,7 +2276,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
@@ -1945,7 +2297,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -1964,7 +2316,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
@@ -1983,7 +2335,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1992,7 +2344,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2011,7 +2363,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2028,7 +2380,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2045,7 +2397,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2066,7 +2418,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -2083,7 +2435,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2104,9 +2456,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2123,7 +2477,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>103</v>
       </c>
@@ -2155,29 +2509,29 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="16">
         <v>59095</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>109</v>
       </c>
       <c r="I2" s="11"/>
@@ -2185,8 +2539,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
       <c r="B3" s="13" t="s">
         <v>114</v>
       </c>
@@ -2209,8 +2563,8 @@
       <c r="I3" s="13"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
       <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
@@ -2235,25 +2589,25 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>59090</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>126</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -2261,8 +2615,8 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
       <c r="B6" s="13" t="s">
         <v>122</v>
       </c>
@@ -2285,85 +2639,341 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="16" t="s">
         <v>109</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="16" t="s">
         <v>109</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="16" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
+    <row r="12" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="33"/>
+      <c r="B14" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="37">
+        <v>61001</v>
+      </c>
+      <c r="I14" s="37">
+        <v>20200103</v>
+      </c>
+      <c r="J14" s="38">
+        <v>61002</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="39">
+        <v>61001</v>
+      </c>
+      <c r="I15" s="39">
+        <v>20200103</v>
+      </c>
+      <c r="J15" s="40">
+        <v>61002</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="39">
+        <v>61001</v>
+      </c>
+      <c r="I16" s="39">
+        <v>20200103</v>
+      </c>
+      <c r="J16" s="40">
+        <v>61002</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="33"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="39">
+        <v>61001</v>
+      </c>
+      <c r="I17" s="39">
+        <v>20200103</v>
+      </c>
+      <c r="J17" s="40">
+        <v>61002</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="41">
+        <v>61001</v>
+      </c>
+      <c r="I18" s="41">
+        <v>20200103</v>
+      </c>
+      <c r="J18" s="42">
+        <v>61002</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="33"/>
+      <c r="B19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="37">
+        <v>61003</v>
+      </c>
+      <c r="I19" s="37">
+        <v>20200103</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
+      <c r="B20" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="37">
+        <v>61005</v>
+      </c>
+      <c r="I20" s="37">
+        <v>61005</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="34"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A13:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="174">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://114.219.56.6:61005/#/mgmt/nodemanage  账户密码 123/12345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -697,6 +693,18 @@
   </si>
   <si>
     <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123 / 12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://114.219.56.6:61005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180.107.140.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +712,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +766,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -773,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -796,166 +812,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1006,6 +868,8 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,47 +882,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1412,7 +1245,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1438,7 +1271,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1295,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1319,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1405,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1600,7 +1433,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1626,7 +1459,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1652,7 +1485,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1678,7 +1511,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1704,7 +1537,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1730,7 +1563,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1756,7 +1589,7 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1784,7 +1617,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1810,7 +1643,7 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1669,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1862,7 +1695,7 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1721,7 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1914,7 +1747,7 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1940,7 +1773,7 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="22" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1968,7 +1801,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1994,7 +1827,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -2020,7 +1853,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +1881,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
         <v>74</v>
       </c>
@@ -2076,7 +1909,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
@@ -2106,7 +1939,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2126,7 +1959,7 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4" t="s">
         <v>75</v>
       </c>
@@ -2150,7 +1983,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
@@ -2232,7 +2065,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2255,7 +2088,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2276,7 +2109,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
@@ -2297,7 +2130,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -2316,7 +2149,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
@@ -2335,7 +2168,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2344,7 +2177,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2363,7 +2196,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2380,7 +2213,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2397,7 +2230,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2418,7 +2251,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -2435,7 +2268,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2458,21 +2291,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -2510,7 +2341,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -2540,7 +2371,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="13" t="s">
         <v>114</v>
       </c>
@@ -2564,7 +2395,7 @@
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
@@ -2590,7 +2421,7 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="16" t="s">
         <v>115</v>
       </c>
@@ -2616,7 +2447,7 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="13" t="s">
         <v>122</v>
       </c>
@@ -2640,7 +2471,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="16" t="s">
         <v>116</v>
       </c>
@@ -2664,7 +2495,7 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="16" t="s">
         <v>117</v>
       </c>
@@ -2690,7 +2521,7 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="16" t="s">
         <v>118</v>
       </c>
@@ -2715,259 +2546,261 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="35" t="s">
+      <c r="J13" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="26">
+        <v>61001</v>
+      </c>
+      <c r="I14" s="26">
+        <v>20200103</v>
+      </c>
+      <c r="J14" s="26">
+        <v>61002</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="26">
+        <v>61001</v>
+      </c>
+      <c r="I15" s="26">
+        <v>20200103</v>
+      </c>
+      <c r="J15" s="26">
+        <v>61002</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="26">
+        <v>61001</v>
+      </c>
+      <c r="I16" s="26">
+        <v>20200103</v>
+      </c>
+      <c r="J16" s="26">
+        <v>61002</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="26">
+        <v>61001</v>
+      </c>
+      <c r="I17" s="26">
+        <v>20200103</v>
+      </c>
+      <c r="J17" s="26">
+        <v>61002</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="26">
+        <v>61001</v>
+      </c>
+      <c r="I18" s="26">
+        <v>20200103</v>
+      </c>
+      <c r="J18" s="26">
+        <v>61002</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="26">
+        <v>61003</v>
+      </c>
+      <c r="I19" s="26">
+        <v>20200103</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="26">
+        <v>61005</v>
+      </c>
+      <c r="I20" s="26">
+        <v>61005</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="37">
-        <v>61001</v>
-      </c>
-      <c r="I14" s="37">
-        <v>20200103</v>
-      </c>
-      <c r="J14" s="38">
-        <v>61002</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="39">
-        <v>61001</v>
-      </c>
-      <c r="I15" s="39">
-        <v>20200103</v>
-      </c>
-      <c r="J15" s="40">
-        <v>61002</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="39">
-        <v>61001</v>
-      </c>
-      <c r="I16" s="39">
-        <v>20200103</v>
-      </c>
-      <c r="J16" s="40">
-        <v>61002</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="39">
-        <v>61001</v>
-      </c>
-      <c r="I17" s="39">
-        <v>20200103</v>
-      </c>
-      <c r="J17" s="40">
-        <v>61002</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="41">
-        <v>61001</v>
-      </c>
-      <c r="I18" s="41">
-        <v>20200103</v>
-      </c>
-      <c r="J18" s="42">
-        <v>61002</v>
-      </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
-      <c r="B19" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="37">
-        <v>61003</v>
-      </c>
-      <c r="I19" s="37">
-        <v>20200103</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="H20" s="37">
-        <v>61005</v>
-      </c>
-      <c r="I20" s="37">
-        <v>61005</v>
-      </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="34"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="10"/>
     </row>
   </sheetData>
@@ -2976,7 +2809,10 @@
     <mergeCell ref="A13:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="175">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -705,6 +705,10 @@
   </si>
   <si>
     <t>180.107.140.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -848,9 +852,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,17 +860,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -885,14 +892,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1245,7 +1252,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1271,7 +1278,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1302,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1326,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1412,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1433,7 +1440,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1459,7 +1466,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1485,7 +1492,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1518,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1537,7 +1544,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1563,7 +1570,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1589,7 +1596,7 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1617,7 +1624,7 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1643,7 +1650,7 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1669,7 +1676,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1695,7 +1702,7 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1728,7 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1747,7 +1754,7 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1773,7 +1780,7 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1801,7 +1808,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1827,7 +1834,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -1853,7 +1860,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1888,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="4" t="s">
         <v>74</v>
       </c>
@@ -1909,7 +1916,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
@@ -1939,7 +1946,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1959,7 +1966,7 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
         <v>75</v>
       </c>
@@ -1983,7 +1990,7 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
@@ -2065,7 +2072,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2088,7 +2095,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2109,7 +2116,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
@@ -2130,7 +2137,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -2149,7 +2156,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
@@ -2168,7 +2175,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2177,7 +2184,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2196,7 +2203,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2213,7 +2220,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2230,7 +2237,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2251,7 +2258,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -2268,7 +2275,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2341,466 +2348,468 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="17">
+        <v>59095</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="12">
+        <v>53000</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="26"/>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="12">
+        <v>58080</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="14">
+        <v>59090</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
+        <v>3306</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="16">
-        <v>59095</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="E8" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="13">
-        <v>53000</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="13" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="19">
+        <v>61001</v>
+      </c>
+      <c r="I14" s="19">
+        <v>20200103</v>
+      </c>
+      <c r="J14" s="19">
+        <v>61002</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="19">
+        <v>61001</v>
+      </c>
+      <c r="I15" s="19">
+        <v>20200103</v>
+      </c>
+      <c r="J15" s="19">
+        <v>61002</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="19">
+        <v>61001</v>
+      </c>
+      <c r="I16" s="19">
+        <v>20200103</v>
+      </c>
+      <c r="J16" s="19">
+        <v>61002</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="19">
+        <v>61001</v>
+      </c>
+      <c r="I17" s="19">
+        <v>20200103</v>
+      </c>
+      <c r="J17" s="19">
+        <v>61002</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="27"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="19">
+        <v>61001</v>
+      </c>
+      <c r="I18" s="19">
+        <v>20200103</v>
+      </c>
+      <c r="J18" s="19">
+        <v>61002</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="13">
-        <v>58080</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="16">
-        <v>59090</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
-        <v>3306</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="26">
-        <v>61001</v>
-      </c>
-      <c r="I14" s="26">
+      <c r="C19" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="19">
+        <v>61003</v>
+      </c>
+      <c r="I19" s="19">
         <v>20200103</v>
       </c>
-      <c r="J14" s="26">
-        <v>61002</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="26">
-        <v>61001</v>
-      </c>
-      <c r="I15" s="26">
-        <v>20200103</v>
-      </c>
-      <c r="J15" s="26">
-        <v>61002</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="26">
-        <v>61001</v>
-      </c>
-      <c r="I16" s="26">
-        <v>20200103</v>
-      </c>
-      <c r="J16" s="26">
-        <v>61002</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="26">
-        <v>61001</v>
-      </c>
-      <c r="I17" s="26">
-        <v>20200103</v>
-      </c>
-      <c r="J17" s="26">
-        <v>61002</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="26">
-        <v>61001</v>
-      </c>
-      <c r="I18" s="26">
-        <v>20200103</v>
-      </c>
-      <c r="J18" s="26">
-        <v>61002</v>
-      </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="26">
-        <v>61003</v>
-      </c>
-      <c r="I19" s="26">
-        <v>20200103</v>
-      </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="19">
         <v>61005</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="19">
         <v>61005</v>
       </c>
-      <c r="J20" s="26"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="10"/>
     </row>
   </sheetData>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2.0存证平台" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="190">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://10.1.5.231:3000/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>system / gwylsystem@2019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,6 +705,69 @@
   </si>
   <si>
     <t>未启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.1.5.231:3000/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t perm_sdk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finserviceAPI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finserviceAPI2</t>
+  </si>
+  <si>
+    <t>~/zll/permission/sdk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t wtfin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtfinservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/zll/permission/wtfinservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/zll/permission/wtfinservice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t wtfin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡6779</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,6 +936,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -890,15 +958,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1252,7 +1311,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1278,7 +1337,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +1361,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1385,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1360,17 +1419,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="1" bestFit="1" customWidth="1"/>
@@ -1412,7 +1471,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1440,7 +1499,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1525,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1492,7 +1551,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1518,7 +1577,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1544,7 +1603,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1629,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1596,11 +1655,11 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1624,9 +1683,9 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1650,9 +1709,9 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>22</v>
@@ -1676,9 +1735,9 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>37</v>
@@ -1696,41 +1755,43 @@
         <v>42</v>
       </c>
       <c r="H12" s="4">
-        <v>7777</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>6668</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6667</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1739,52 +1800,52 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6778</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>18</v>
+        <v>184</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6777</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="25" t="s">
-        <v>101</v>
-      </c>
+      <c r="A16" s="28"/>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -1793,24 +1854,24 @@
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>8</v>
@@ -1819,24 +1880,24 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>22</v>
@@ -1845,24 +1906,26 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
@@ -1871,84 +1934,76 @@
         <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="4">
-        <v>9997</v>
+        <v>77</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="4" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="4">
-        <v>8888</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="4">
-        <v>8888</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
@@ -1957,71 +2012,157 @@
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="4">
+        <v>9997</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="28"/>
+      <c r="B24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="4">
+        <v>8888</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="28"/>
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
-      <c r="B23" s="4" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="28"/>
+      <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <v>9095</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
-      <c r="B24" s="4" t="s">
+      <c r="I26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="28"/>
+      <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4">
+      <c r="E27" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
         <v>3000</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A19:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2072,7 +2213,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2095,7 +2236,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2116,7 +2257,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
@@ -2137,7 +2278,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -2156,7 +2297,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
@@ -2175,7 +2316,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2184,7 +2325,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2203,7 +2344,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2220,7 +2361,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2237,7 +2378,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2258,7 +2399,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -2275,7 +2416,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2298,7 +2439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2317,7 +2458,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>4</v>
@@ -2338,71 +2479,71 @@
         <v>3</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>79</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>104</v>
+      <c r="A2" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>91</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="G2" s="17">
         <v>59095</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="12">
         <v>53000</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
@@ -2411,7 +2552,7 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>42</v>
@@ -2420,137 +2561,137 @@
         <v>58080</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="G5" s="14">
         <v>59090</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>174</v>
+        <v>128</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12">
         <v>3306</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>119</v>
+      <c r="G7" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>119</v>
+      <c r="G8" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>119</v>
-      </c>
       <c r="H9" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -2566,54 +2707,54 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="J13" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="22" t="s">
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>77</v>
@@ -2630,19 +2771,19 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>77</v>
@@ -2659,22 +2800,22 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>154</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>155</v>
       </c>
       <c r="H16" s="19">
         <v>61001</v>
@@ -2688,17 +2829,17 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>77</v>
@@ -2715,20 +2856,20 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>161</v>
       </c>
       <c r="H18" s="19">
         <v>61001</v>
@@ -2742,19 +2883,19 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>78</v>
@@ -2769,22 +2910,22 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>163</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>164</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>165</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>166</v>
       </c>
       <c r="H20" s="19">
         <v>61005</v>
@@ -2796,14 +2937,14 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="18"/>
       <c r="C21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2.0存证平台" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="191">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,7 +448,301 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.1.3.patch1</t>
+    <t>10.1.5.226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.5.227</t>
+  </si>
+  <si>
+    <t>10.1.5.228</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60213/9213/7213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root / root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/mysql/bin/mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallet213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtmgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtexplorer_2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/tjfoc/wtfinservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtfinservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcp端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpc端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.219.56.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.100.193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root / Tongji123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/mix/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180.107.140.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.100.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root / Tongji123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/mix/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180.101.144.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.100.165</t>
+  </si>
+  <si>
+    <t>root / Tongji123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtpeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.112.52.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubuntu / TJF@tjfoc </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/ubuntu/mix/wtchain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.27.168.192</t>
+  </si>
+  <si>
+    <t>ubuntu / tj@123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtpeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/mix/wtsdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.219.56.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root / Tongji123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtmgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/wtmgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网混合组网环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123 / 12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180.107.140.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.1.5.231:3000/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t perm_sdk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finserviceAPI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finserviceAPI2</t>
+  </si>
+  <si>
+    <t>~/zll/permission/sdk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t wtfin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtfinservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/zll/permission/wtfinservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/zll/permission/wtfinservice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmux at -t wtfin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡6779</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -457,97 +751,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.1.5.226</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.5.227</t>
-  </si>
-  <si>
-    <t>10.1.5.228</t>
-  </si>
-  <si>
-    <t>浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60213/9213/7213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/tjfoc/wtchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root / root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.7.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/usr/local/mysql/bin/mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wallet213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wttoken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/tjfoc/wtmgmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/tjfoc/wtexplorer_2.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/tjfoc/wtsdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/tjfoc/wtfinservice</t>
+    <t>2.1.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -555,144 +759,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外网IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内网IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tcp端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpc端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114.219.56.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.100.193</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root / Tongji123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/mix/wtchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180.107.140.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.100.59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root / Tongji123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/mix/wtchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180.101.144.34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.100.165</t>
-  </si>
-  <si>
-    <t>root / Tongji123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtpeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193.112.52.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubuntu / TJF@tjfoc </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/ubuntu/mix/wtchain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119.27.168.192</t>
-  </si>
-  <si>
-    <t>ubuntu / tj@123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtpeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/mix/wtsdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>114.219.56.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root / Tongji123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtmgmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/wtmgmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外网混合组网环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123 / 12345678</t>
+    <t>wutongExplorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.0116</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -700,74 +771,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>180.107.140.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://10.1.5.231:3000/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t perm_sdk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finserviceAPI1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finserviceAPI2</t>
-  </si>
-  <si>
-    <t>~/zll/permission/sdk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t wtfin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wtfinservice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~/zll/permission/wtfinservice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~/zll/permission/wtfinservice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmux at -t wtfin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载均衡6666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负载均衡6779</t>
+    <t>sdk / 自动化发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,18 +842,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -880,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -913,15 +911,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,8 +931,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -959,6 +948,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1311,7 +1303,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1337,7 +1329,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1361,7 +1353,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1377,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1471,7 +1465,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1499,7 +1493,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1519,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1551,7 +1545,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1577,7 +1571,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1603,7 +1597,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1629,7 +1623,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1655,11 +1649,11 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1683,9 +1677,9 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1709,9 +1703,9 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>22</v>
@@ -1735,9 +1729,9 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>37</v>
@@ -1758,14 +1752,14 @@
         <v>6668</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1774,10 +1768,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>42</v>
@@ -1789,9 +1783,9 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1800,26 +1794,26 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H14" s="4">
         <v>6778</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1828,13 +1822,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H15" s="4">
         <v>6777</v>
@@ -1843,7 +1837,7 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1869,7 +1863,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1895,7 +1889,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1921,7 +1915,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1949,7 +1943,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1975,7 +1969,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +1995,7 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
@@ -2029,7 +2023,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
@@ -2057,7 +2051,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="4" t="s">
         <v>74</v>
       </c>
@@ -2087,7 +2081,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2101,7 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
@@ -2131,7 +2125,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
@@ -2142,7 +2136,7 @@
         <v>82</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2213,7 +2207,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2236,7 +2230,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2257,7 +2251,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
@@ -2278,7 +2272,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -2297,7 +2291,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
@@ -2316,7 +2310,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2325,7 +2319,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2344,7 +2338,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2361,7 +2355,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2378,7 +2372,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2399,7 +2393,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -2416,7 +2410,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2439,19 +2433,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.75" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -2488,469 +2482,469 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="22">
+        <v>59095</v>
+      </c>
+      <c r="H2" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="22">
+        <v>53000</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26"/>
+      <c r="B4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="22">
+        <v>58080</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="17">
-        <v>59095</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="F5" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="22">
+        <v>59090</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22">
+        <v>3306</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="11" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="D8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="12">
-        <v>53000</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="12">
-        <v>58080</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="E13" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F13" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="14">
-        <v>59090</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12">
-        <v>3306</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="H13" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="27"/>
+      <c r="B14" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="16">
+        <v>61001</v>
+      </c>
+      <c r="I14" s="16">
+        <v>20200103</v>
+      </c>
+      <c r="J14" s="16">
+        <v>61002</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="27"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="16">
+        <v>61001</v>
+      </c>
+      <c r="I15" s="16">
+        <v>20200103</v>
+      </c>
+      <c r="J15" s="16">
+        <v>61002</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="27"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="16">
+        <v>61001</v>
+      </c>
+      <c r="I16" s="16">
+        <v>20200103</v>
+      </c>
+      <c r="J16" s="16">
+        <v>61002</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="16">
+        <v>61001</v>
+      </c>
+      <c r="I17" s="16">
+        <v>20200103</v>
+      </c>
+      <c r="J17" s="16">
+        <v>61002</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="27"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="16">
+        <v>61001</v>
+      </c>
+      <c r="I18" s="16">
+        <v>20200103</v>
+      </c>
+      <c r="J18" s="16">
+        <v>61002</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="B19" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="19">
-        <v>61001</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="16">
+        <v>61003</v>
+      </c>
+      <c r="I19" s="16">
         <v>20200103</v>
       </c>
-      <c r="J14" s="19">
-        <v>61002</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="19">
-        <v>61001</v>
-      </c>
-      <c r="I15" s="19">
-        <v>20200103</v>
-      </c>
-      <c r="J15" s="19">
-        <v>61002</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="19">
-        <v>61001</v>
-      </c>
-      <c r="I16" s="19">
-        <v>20200103</v>
-      </c>
-      <c r="J16" s="19">
-        <v>61002</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="19">
-        <v>61001</v>
-      </c>
-      <c r="I17" s="19">
-        <v>20200103</v>
-      </c>
-      <c r="J17" s="19">
-        <v>61002</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
+      <c r="J19" s="16"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="27"/>
+      <c r="B20" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="H18" s="19">
-        <v>61001</v>
-      </c>
-      <c r="I18" s="19">
-        <v>20200103</v>
-      </c>
-      <c r="J18" s="19">
-        <v>61002</v>
-      </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="F20" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="19">
-        <v>61003</v>
-      </c>
-      <c r="I19" s="19">
-        <v>20200103</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="H20" s="16">
+        <v>61005</v>
+      </c>
+      <c r="I20" s="16">
+        <v>61005</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="19">
-        <v>61005</v>
-      </c>
-      <c r="I20" s="19">
-        <v>61005</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="10"/>
     </row>
   </sheetData>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="189">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,14 +458,6 @@
     <t>10.1.5.228</t>
   </si>
   <si>
-    <t>浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>节点1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,18 +609,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>193.112.52.147</t>
-  </si>
-  <si>
     <t xml:space="preserve">ubuntu / TJF@tjfoc </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/home/ubuntu/mix/wtchain</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>119.27.168.192</t>
   </si>
   <si>
     <t>ubuntu / tj@123456</t>
@@ -751,10 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wtfinservice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,7 +745,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.2.0116</t>
+    <t>sdk / 自动化发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -771,7 +753,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sdk / 自动化发送</t>
+    <t>193.112.52.147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119.27.168.192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融服务API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tjfoc/tjfoc123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -934,6 +928,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -948,9 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1303,7 +1300,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1329,7 +1326,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1350,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1374,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1411,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1465,7 +1462,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1493,7 +1490,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1519,7 +1516,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1545,7 +1542,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1571,7 +1568,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1594,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1623,7 +1620,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1649,11 +1646,11 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1677,9 +1674,9 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1703,9 +1700,9 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>22</v>
@@ -1729,9 +1726,9 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>37</v>
@@ -1752,14 +1749,14 @@
         <v>6668</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1768,10 +1765,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>42</v>
@@ -1783,9 +1780,9 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1794,26 +1791,26 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H14" s="4">
         <v>6778</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1822,13 +1819,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H15" s="4">
         <v>6777</v>
@@ -1837,7 +1834,7 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1863,7 +1860,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1886,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1915,7 +1912,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="27" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1943,7 +1940,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1969,7 +1966,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1995,7 +1992,7 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
@@ -2023,7 +2020,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
@@ -2051,7 +2048,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="4" t="s">
         <v>74</v>
       </c>
@@ -2081,7 +2078,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2101,7 +2098,7 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
@@ -2125,7 +2122,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
@@ -2136,7 +2133,7 @@
         <v>82</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2207,7 +2204,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2230,7 +2227,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2251,7 +2248,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
@@ -2272,7 +2269,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -2291,7 +2288,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
@@ -2310,7 +2307,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2319,7 +2316,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2338,7 +2335,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2355,7 +2352,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2372,7 +2369,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2393,7 +2390,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -2410,7 +2407,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2482,8 +2479,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:11" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -2496,7 +2493,7 @@
         <v>104</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>105</v>
@@ -2509,39 +2506,39 @@
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="28"/>
       <c r="B3" s="22" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="G3" s="22">
-        <v>53000</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>123</v>
+        <v>58080</v>
+      </c>
+      <c r="H3" s="23">
+        <v>2.2000000000000002</v>
       </c>
       <c r="I3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="22" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>91</v>
@@ -2551,144 +2548,144 @@
         <v>127</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="G4" s="22">
-        <v>58080</v>
-      </c>
-      <c r="H4" s="22" t="s">
+        <v>59090</v>
+      </c>
+      <c r="H4" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
+      <c r="B6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="E6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
+      <c r="B7" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28"/>
+      <c r="B8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="F8" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="23">
+        <v>53000</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
+      <c r="B9" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="22">
-        <v>59090</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="22" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23">
+        <v>3306</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22">
-        <v>3306</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
@@ -2701,54 +2698,54 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>164</v>
+      <c r="A13" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="F13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="H13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
+      <c r="B14" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>77</v>
@@ -2765,19 +2762,19 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>77</v>
@@ -2794,22 +2791,22 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="F16" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="H16" s="16">
         <v>61001</v>
@@ -2823,17 +2820,17 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>77</v>
@@ -2850,20 +2847,20 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H18" s="16">
         <v>61001</v>
@@ -2877,19 +2874,19 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>78</v>
@@ -2904,22 +2901,22 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H20" s="16">
         <v>61005</v>
@@ -2931,14 +2928,14 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="15"/>
       <c r="C21" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="189">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,10 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wallet213</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,11 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin / pass@7899
-system / pass@7899</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wtfinservice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -766,6 +757,15 @@
   </si>
   <si>
     <t>tjfoc/tjfoc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin / Pass@7899
+system / Pass@7899</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -933,6 +933,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1300,7 +1303,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1326,7 +1329,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1353,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1377,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1465,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1490,7 +1493,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1516,7 +1519,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +1545,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1571,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1597,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +1623,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1646,7 +1649,7 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1674,9 +1677,9 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
@@ -1700,9 +1703,9 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>22</v>
@@ -1726,9 +1729,9 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>37</v>
@@ -1749,14 +1752,14 @@
         <v>6668</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1765,10 +1768,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>42</v>
@@ -1780,9 +1783,9 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1791,26 +1794,26 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="H14" s="4">
         <v>6778</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1819,13 +1822,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15" s="4">
         <v>6777</v>
@@ -1834,7 +1837,7 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1860,7 +1863,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1886,7 +1889,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1912,7 +1915,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1940,7 +1943,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1966,7 +1969,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1992,7 +1995,7 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2023,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
@@ -2048,7 +2051,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="4" t="s">
         <v>74</v>
       </c>
@@ -2078,7 +2081,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
@@ -2098,7 +2101,7 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
@@ -2122,7 +2125,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>82</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2204,7 +2207,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2227,7 +2230,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2248,7 +2251,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
@@ -2269,7 +2272,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -2288,7 +2291,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
@@ -2307,7 +2310,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2316,7 +2319,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2335,7 +2338,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2352,7 +2355,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
@@ -2369,7 +2372,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2390,7 +2393,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
@@ -2407,7 +2410,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2430,7 +2433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2480,7 +2485,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -2493,7 +2498,7 @@
         <v>104</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>105</v>
@@ -2502,15 +2507,15 @@
         <v>59095</v>
       </c>
       <c r="H2" s="22">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="11" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
         <v>16</v>
       </c>
@@ -2519,7 +2524,7 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>42</v>
@@ -2527,42 +2532,42 @@
       <c r="G3" s="22">
         <v>58080</v>
       </c>
-      <c r="H3" s="23">
-        <v>2.2000000000000002</v>
+      <c r="H3" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="G4" s="22">
         <v>59090</v>
       </c>
-      <c r="H4" s="22">
-        <v>2.2000000000000002</v>
+      <c r="H4" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="14" t="s">
         <v>111</v>
       </c>
@@ -2579,14 +2584,14 @@
       <c r="G5" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="23">
-        <v>2.2000000000000002</v>
+      <c r="H5" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="14" t="s">
         <v>112</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>109</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>115</v>
@@ -2605,14 +2610,14 @@
       <c r="G6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="23">
-        <v>2.2000000000000002</v>
+      <c r="H6" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="23" t="s">
         <v>113</v>
       </c>
@@ -2631,14 +2636,14 @@
       <c r="G7" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="23">
-        <v>2.2000000000000002</v>
+      <c r="H7" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="23" t="s">
         <v>76</v>
       </c>
@@ -2647,24 +2652,24 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="23">
         <v>53000</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>121</v>
+      <c r="H8" s="23">
+        <v>2.2000000000000002</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="23" t="s">
         <v>117</v>
       </c>
@@ -2698,54 +2703,54 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="J13" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>77</v>
@@ -2762,19 +2767,19 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>77</v>
@@ -2791,22 +2796,22 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="H16" s="16">
         <v>61001</v>
@@ -2820,17 +2825,17 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>77</v>
@@ -2847,20 +2852,20 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="H18" s="16">
         <v>61001</v>
@@ -2874,19 +2879,19 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>78</v>
@@ -2901,22 +2906,22 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="H20" s="16">
         <v>61005</v>
@@ -2928,14 +2933,14 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="15"/>
       <c r="C21" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>

--- a/测试环境.xlsx
+++ b/测试环境.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2.0存证平台" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="176">
   <si>
     <t>测试环境</t>
   </si>
@@ -289,25 +289,10 @@
     <t>rpc端口</t>
   </si>
   <si>
-    <t>193.112.52.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubuntu / TJF@tjfoc </t>
-  </si>
-  <si>
-    <t>/home/ubuntu/mix/wtchain</t>
-  </si>
-  <si>
-    <t>wtpeer</t>
-  </si>
-  <si>
     <t>119.27.168.192</t>
   </si>
   <si>
     <t>ubuntu / tj@123456</t>
-  </si>
-  <si>
-    <t>sdk / 自动化发送</t>
   </si>
   <si>
     <t>备注</t>
@@ -347,152 +332,270 @@
     <t>~/zll/chain2.0.1/toolkit</t>
   </si>
   <si>
+    <t>~/zll/permission/peer</t>
+  </si>
+  <si>
+    <t>tmux at -t perm</t>
+  </si>
+  <si>
+    <t>rpc:9300 tcp:60030</t>
+  </si>
+  <si>
+    <t>sdk1</t>
+  </si>
+  <si>
+    <t>~/zll/permission/sdk</t>
+  </si>
+  <si>
+    <t>tmux at -t perm_sdk</t>
+  </si>
+  <si>
+    <t>sdk2</t>
+  </si>
+  <si>
+    <t>~/zll/permission/sdk2</t>
+  </si>
+  <si>
+    <t>tmux at -t perm_sdk2</t>
+  </si>
+  <si>
+    <t>wtsdk2</t>
+  </si>
+  <si>
+    <t>finserviceAPI1</t>
+  </si>
+  <si>
+    <t>~/zll/permission/wtfinservice</t>
+  </si>
+  <si>
+    <t>tmux at -t wtfin</t>
+  </si>
+  <si>
+    <t>finserviceAPI2</t>
+  </si>
+  <si>
+    <t>~/zll/permission/wtfinservice2</t>
+  </si>
+  <si>
+    <t>tmux at -t wtfin2</t>
+  </si>
+  <si>
+    <t>wtfinservice2</t>
+  </si>
+  <si>
+    <t>~/zll/permission/toolkit</t>
+  </si>
+  <si>
+    <t>~/zll/permission/wtmgmt</t>
+  </si>
+  <si>
+    <t>自动化测试环境3
+（李璐）</t>
+  </si>
+  <si>
+    <t>10.1.3.162</t>
+  </si>
+  <si>
+    <t>~/opt/wtchain/wtchain</t>
+  </si>
+  <si>
+    <t>tmux at -t wt-chain</t>
+  </si>
+  <si>
+    <t>rpc:7200 tcp:7000</t>
+  </si>
+  <si>
+    <t>10.1.3.163</t>
+  </si>
+  <si>
+    <t>10.1.3.164</t>
+  </si>
+  <si>
+    <t>~/opt/wtchain/wtsdk</t>
+  </si>
+  <si>
+    <t>tmux at -t wt-sdk</t>
+  </si>
+  <si>
+    <t>finserviceAPI</t>
+  </si>
+  <si>
+    <t>~/opt/wtchain/wtfinservice</t>
+  </si>
+  <si>
+    <t>tmux at -t wt-fin</t>
+  </si>
+  <si>
+    <t>~/opt/wtchain/toolkit</t>
+  </si>
+  <si>
+    <t>自动化测试环境4
+（杜宇阳）</t>
+  </si>
+  <si>
+    <t>10.1.5.223</t>
+  </si>
+  <si>
+    <t>~/dyy/wtchain/wtchain</t>
+  </si>
+  <si>
+    <t>tmux at -t wtchain</t>
+  </si>
+  <si>
+    <t>roc:8600 tcp8700</t>
+  </si>
+  <si>
+    <t>10.1.5.224</t>
+  </si>
+  <si>
+    <t>10.1.5.247</t>
+  </si>
+  <si>
+    <t>~/dyy/wtsdk/wdsdk</t>
+  </si>
+  <si>
+    <t>tmux at -t wtsdk</t>
+  </si>
+  <si>
+    <t>~/dyy/wtfinservice/wtfinservice</t>
+  </si>
+  <si>
+    <t>tmux at -t wtfinservice</t>
+  </si>
+  <si>
+    <t>~/dyy/toolkit/toolkit</t>
+  </si>
+  <si>
+    <t>负载均衡8080</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>负载均衡9090</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>自动化测试环境2
 （周先先）</t>
-  </si>
-  <si>
-    <t>~/zll/permission/peer</t>
-  </si>
-  <si>
-    <t>tmux at -t perm</t>
-  </si>
-  <si>
-    <t>rpc:9300 tcp:60030</t>
-  </si>
-  <si>
-    <t>sdk1</t>
-  </si>
-  <si>
-    <t>~/zll/permission/sdk</t>
-  </si>
-  <si>
-    <t>tmux at -t perm_sdk</t>
-  </si>
-  <si>
-    <t>负载均衡7779</t>
-  </si>
-  <si>
-    <t>sdk2</t>
-  </si>
-  <si>
-    <t>~/zll/permission/sdk2</t>
-  </si>
-  <si>
-    <t>tmux at -t perm_sdk2</t>
-  </si>
-  <si>
-    <t>wtsdk2</t>
-  </si>
-  <si>
-    <t>finserviceAPI1</t>
-  </si>
-  <si>
-    <t>~/zll/permission/wtfinservice</t>
-  </si>
-  <si>
-    <t>tmux at -t wtfin</t>
-  </si>
-  <si>
-    <t>finserviceAPI2</t>
-  </si>
-  <si>
-    <t>~/zll/permission/wtfinservice2</t>
-  </si>
-  <si>
-    <t>tmux at -t wtfin2</t>
-  </si>
-  <si>
-    <t>wtfinservice2</t>
-  </si>
-  <si>
-    <t>~/zll/permission/toolkit</t>
-  </si>
-  <si>
-    <t>~/zll/permission/wtmgmt</t>
-  </si>
-  <si>
-    <t>自动化测试环境3
-（李璐）</t>
-  </si>
-  <si>
-    <t>10.1.3.162</t>
-  </si>
-  <si>
-    <t>~/opt/wtchain/wtchain</t>
-  </si>
-  <si>
-    <t>tmux at -t wt-chain</t>
-  </si>
-  <si>
-    <t>rpc:7200 tcp:7000</t>
-  </si>
-  <si>
-    <t>10.1.3.163</t>
-  </si>
-  <si>
-    <t>10.1.3.164</t>
-  </si>
-  <si>
-    <t>~/opt/wtchain/wtsdk</t>
-  </si>
-  <si>
-    <t>tmux at -t wt-sdk</t>
-  </si>
-  <si>
-    <t>finserviceAPI</t>
-  </si>
-  <si>
-    <t>~/opt/wtchain/wtfinservice</t>
-  </si>
-  <si>
-    <t>tmux at -t wt-fin</t>
-  </si>
-  <si>
-    <t>~/opt/wtchain/toolkit</t>
-  </si>
-  <si>
-    <t>自动化测试环境4
-（杜宇阳）</t>
-  </si>
-  <si>
-    <t>10.1.5.223</t>
-  </si>
-  <si>
-    <t>~/dyy/wtchain/wtchain</t>
-  </si>
-  <si>
-    <t>tmux at -t wtchain</t>
-  </si>
-  <si>
-    <t>roc:8600 tcp8700</t>
-  </si>
-  <si>
-    <t>10.1.5.224</t>
-  </si>
-  <si>
-    <t>10.1.5.247</t>
-  </si>
-  <si>
-    <t>~/dyy/wtsdk/wdsdk</t>
-  </si>
-  <si>
-    <t>tmux at -t wtsdk</t>
-  </si>
-  <si>
-    <t>~/dyy/wtfinservice/wtfinservice</t>
-  </si>
-  <si>
-    <t>tmux at -t wtfinservice</t>
-  </si>
-  <si>
-    <t>~/dyy/toolkit/toolkit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>121.224.6.7 (5 Mbit/s )</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>117.83.152.72 (5 Mbit/s )</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.64.242.75 (5 Mbit/s )</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>121.229.44.232 (5 Mbit/s )</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>121.229.42.138 (5 Mbit/s )</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>root/blockchain@2019123</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/wtchain2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtchain</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/root/wtmgmt2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtmgmt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ubuntu / TJF@tjfoc </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.112.52.147</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.16.11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.27.0.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/ubuntu/mix/wtchain2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +608,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -512,6 +616,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -519,44 +624,46 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -579,12 +686,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -599,15 +714,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -625,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,6 +748,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -651,7 +763,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,10 +775,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -721,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,7 +879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -983,39 +1106,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1024,7 +1147,7 @@
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1035,20 +1158,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1059,35 +1182,35 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="16">
         <v>7775</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1110,7 +1233,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1133,39 +1256,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1174,7 +1297,7 @@
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4"/>
@@ -1183,20 +1306,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="4"/>
@@ -1205,33 +1328,33 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1252,7 +1375,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1276,39 +1399,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1317,19 +1440,19 @@
       <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1338,19 +1461,19 @@
       <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1359,119 +1482,119 @@
       <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="4">
         <v>4080</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
         <v>9000</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
         <v>9001</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
         <v>9002</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1480,42 +1603,42 @@
       <c r="F11" s="4">
         <v>8888</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="4">
         <v>3000</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1525,278 +1648,278 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="31.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="6" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="9">
         <v>59095</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="9">
         <v>58080</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="14" t="s">
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="9">
         <v>59090</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="14" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="9">
         <v>53000</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="14" t="s">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
         <v>3306</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A9"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1816,8 +1939,8 @@
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="28.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="7.375" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
@@ -1825,183 +1948,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24"/>
+      <c r="B2" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="4">
+        <v>59002</v>
+      </c>
+      <c r="I2" s="4">
+        <v>20200324</v>
+      </c>
+      <c r="J2" s="4">
+        <v>59000</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="4">
+        <v>59002</v>
+      </c>
+      <c r="I3" s="4">
+        <v>20200324</v>
+      </c>
+      <c r="J3" s="4">
+        <v>59000</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
+      <c r="B4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="4">
+        <v>59002</v>
+      </c>
+      <c r="I4" s="4">
+        <v>20200324</v>
+      </c>
+      <c r="J4" s="4">
+        <v>59000</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="4">
+        <v>59002</v>
+      </c>
+      <c r="I5" s="4">
+        <v>20200324</v>
+      </c>
+      <c r="J5" s="4">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="4">
+        <v>59002</v>
+      </c>
+      <c r="I6" s="4">
+        <v>20200324</v>
+      </c>
+      <c r="J6" s="4">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="4">
+        <v>61001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>20200324</v>
+      </c>
+      <c r="J7" s="4">
+        <v>61002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="D8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="F8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="4">
         <v>61001</v>
       </c>
-      <c r="I5" s="10">
-        <v>20200103</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I8" s="4">
+        <v>20200324</v>
+      </c>
+      <c r="J8" s="4">
         <v>61002</v>
       </c>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="10">
-        <v>61001</v>
-      </c>
-      <c r="I6" s="10">
-        <v>20200103</v>
-      </c>
-      <c r="J6" s="10">
-        <v>61002</v>
-      </c>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="4">
+        <v>59095</v>
+      </c>
+      <c r="I9" s="4">
+        <v>20200324</v>
+      </c>
+      <c r="J9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A9"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2009,9 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2054,15 +2278,15 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
-        <v>95</v>
+      <c r="A2" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -2074,22 +2298,22 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2100,48 +2324,48 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -2152,10 +2376,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
@@ -2167,7 +2391,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2178,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -2189,7 +2413,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -2200,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -2211,18 +2435,18 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -2234,378 +2458,378 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="D9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="28"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="D10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="H10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="H11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="28"/>
-      <c r="B12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="4">
-        <v>7777</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J12" s="4"/>
+      <c r="H12" s="18">
+        <v>8081</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
-      <c r="B13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="4">
-        <v>7778</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="18">
+        <v>8082</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="28"/>
-      <c r="B14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="D14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="4">
-        <v>7777</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="4"/>
+      <c r="H14" s="18">
+        <v>9091</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
-      <c r="B15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="4">
-        <v>7778</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="D15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="18">
+        <v>9092</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
+      <c r="D16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="28"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="D17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="28"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
+      <c r="C18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="28"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="C19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="18">
         <v>59095</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
-        <v>127</v>
+      <c r="A20" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>38</v>
@@ -2617,21 +2841,21 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>65</v>
@@ -2643,18 +2867,18 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2663,18 +2887,18 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2683,18 +2907,18 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2704,195 +2928,195 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="C28" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="H28" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="28"/>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="C29" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="H29" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="28"/>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="C30" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="H30" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="28"/>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="18">
         <v>8070</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
-      <c r="B32" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="B32" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="18">
         <v>8080</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="C33" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="C34" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="28"/>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="C35" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2901,13 +3125,19 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="A28:A35"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
@@ -2919,7 +3149,15 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -2931,21 +3169,11 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="6"/>
@@ -2957,11 +3185,16 @@
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2970,7 +3203,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2979,26 +3221,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3007,7 +3231,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
